--- a/data_preprocesada_N1/renta_neta_media_población_2016.xlsx
+++ b/data_preprocesada_N1/renta_neta_media_población_2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="164">
   <si>
     <t>INDICADOR</t>
   </si>
@@ -28,6 +28,12 @@
     <t>ANIO</t>
   </si>
   <si>
+    <t>LATITUD</t>
+  </si>
+  <si>
+    <t>LONGITUD</t>
+  </si>
+  <si>
     <t>Renta neta media anual de los hogares por barrios. Indicadores Urban Audit 2013. INE.</t>
   </si>
   <si>
@@ -88,7 +94,7 @@
     <t>RETIRO</t>
   </si>
   <si>
-    <t>PACIFICO</t>
+    <t>PACÍFICO</t>
   </si>
   <si>
     <t>ADELFAS</t>
@@ -163,7 +169,7 @@
     <t>ALMENARA</t>
   </si>
   <si>
-    <t>VALDEACEREDAS</t>
+    <t>VALDEACEDERAS</t>
   </si>
   <si>
     <t>BERRUGUETE</t>
@@ -184,7 +190,7 @@
     <t>ALMAGRO</t>
   </si>
   <si>
-    <t>RIOS ROSAS</t>
+    <t>RÍOS ROSAS</t>
   </si>
   <si>
     <t>VALLEHERMOSO</t>
@@ -197,13 +203,13 @@
     <t>EL PARDO</t>
   </si>
   <si>
-    <t>FUENTELARREINA</t>
+    <t>FUENTELAREINA</t>
   </si>
   <si>
     <t>PEÑAGRANDE</t>
   </si>
   <si>
-    <t>EL PILAR</t>
+    <t>PILAR</t>
   </si>
   <si>
     <t>LA PAZ</t>
@@ -228,8 +234,7 @@
     <t>ARGÜELLES</t>
   </si>
   <si>
-    <t>CIUDAD 
-UNIVERSITARIA</t>
+    <t>CIUDAD UNIVERSITARIA</t>
   </si>
   <si>
     <t>VALDEZARZA</t>
@@ -329,8 +334,7 @@
     <t>PALOMERAS BAJAS</t>
   </si>
   <si>
-    <t>PALOMERAS 
-SURESTE</t>
+    <t>PALOMERAS SURESTE</t>
   </si>
   <si>
     <t>PORTAZGO</t>
@@ -363,7 +367,7 @@
     <t>CIUDAD LINEAL</t>
   </si>
   <si>
-    <t xml:space="preserve">VENTAS </t>
+    <t>VENTAS</t>
   </si>
   <si>
     <t>PUEBLO NUEVO</t>
@@ -378,8 +382,7 @@
     <t>SAN PASCUAL</t>
   </si>
   <si>
-    <t>SAN JUAN 
-BAUTISTA</t>
+    <t>SAN JUAN BAUTISTA</t>
   </si>
   <si>
     <t>COLINA</t>
@@ -406,7 +409,7 @@
     <t>PINAR DEL REY</t>
   </si>
   <si>
-    <t>APÓSTOLO SANTIAGO</t>
+    <t>APÓSTOL SANTIAGO</t>
   </si>
   <si>
     <t>VALDEFUENTES</t>
@@ -440,8 +443,7 @@
  VALLECAS</t>
   </si>
   <si>
-    <t>CASCO HISTÓRICO DE
-VALLECAS</t>
+    <t>CASCO HISTÓRICO DE VALLECAS</t>
   </si>
   <si>
     <t>SANTA EUGENIA</t>
@@ -459,8 +461,7 @@
     <t>VICÁLVARO</t>
   </si>
   <si>
-    <t>CASCO HISTÓRICO DE
-VICÁLVARO</t>
+    <t>CASCO HISTÓRICO DE VICÁLVARO</t>
   </si>
   <si>
     <t>AMBROZ</t>
@@ -503,11 +504,10 @@
     <t>AEROPUERTO</t>
   </si>
   <si>
-    <t>CASCO HISTÓRICO
-DE BARAJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMÓN </t>
+    <t>CASCO HISTÓRICO DE BARAJAS</t>
+  </si>
+  <si>
+    <t>TIMÓN</t>
   </si>
   <si>
     <t>CORRALEJOS</t>
@@ -868,13 +868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,30 +887,36 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>31912.67113655403</v>
@@ -918,16 +924,22 @@
       <c r="E3">
         <v>2016</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>4474110.875</v>
+      </c>
+      <c r="G3">
+        <v>439417.7914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>23917.97160602911</v>
@@ -935,16 +947,22 @@
       <c r="E4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>4473417.211</v>
+      </c>
+      <c r="G4">
+        <v>440397.1764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>32410.56259259259</v>
@@ -952,16 +970,22 @@
       <c r="E5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>4474035.577</v>
+      </c>
+      <c r="G5">
+        <v>440880.1521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>36413.53588671779</v>
@@ -969,16 +993,22 @@
       <c r="E6">
         <v>2016</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>4475014.208</v>
+      </c>
+      <c r="G6">
+        <v>440900.7625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>28782.54080470341</v>
@@ -986,16 +1016,22 @@
       <c r="E7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>4475244.247</v>
+      </c>
+      <c r="G7">
+        <v>440020.8477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>27377.51784302964</v>
@@ -1003,30 +1039,36 @@
       <c r="E8">
         <v>2016</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>4474314.564</v>
+      </c>
+      <c r="G8">
+        <v>440226.8442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>39919.80512483131</v>
@@ -1034,16 +1076,22 @@
       <c r="E10">
         <v>2016</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>4473089.616</v>
+      </c>
+      <c r="G10">
+        <v>439045.6199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>42748.80070114473</v>
@@ -1051,16 +1099,22 @@
       <c r="E11">
         <v>2016</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>4472513.434</v>
+      </c>
+      <c r="G11">
+        <v>439982.8536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>30279.72158001917</v>
@@ -1068,16 +1122,22 @@
       <c r="E12">
         <v>2016</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>4471808.825</v>
+      </c>
+      <c r="G12">
+        <v>440672.2536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>45690.82735857205</v>
@@ -1085,16 +1145,22 @@
       <c r="E13">
         <v>2016</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>4471151.447</v>
+      </c>
+      <c r="G13">
+        <v>441682.9396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>37010.00566966312</v>
@@ -1102,16 +1168,22 @@
       <c r="E14">
         <v>2016</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>4472027.934</v>
+      </c>
+      <c r="G14">
+        <v>441453.464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>32028.69544072683</v>
@@ -1119,16 +1191,22 @@
       <c r="E15">
         <v>2016</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>4472774.286</v>
+      </c>
+      <c r="G15">
+        <v>441057.6445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>34606.58709134615</v>
@@ -1136,30 +1214,36 @@
       <c r="E16">
         <v>2016</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>4472353.007</v>
+      </c>
+      <c r="G16">
+        <v>442131.2346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>39953.73565685927</v>
@@ -1167,16 +1251,22 @@
       <c r="E18">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>4472859.079</v>
+      </c>
+      <c r="G18">
+        <v>442407.5013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>43239.25611893134</v>
@@ -1184,16 +1274,22 @@
       <c r="E19">
         <v>2016</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>4472494.747</v>
+      </c>
+      <c r="G19">
+        <v>443062.2345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>56529.39552282596</v>
@@ -1201,16 +1297,22 @@
       <c r="E20">
         <v>2016</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>4473931.01</v>
+      </c>
+      <c r="G20">
+        <v>443534.9304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>43021.34921859545</v>
@@ -1218,16 +1320,22 @@
       <c r="E21">
         <v>2016</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>4474469.277</v>
+      </c>
+      <c r="G21">
+        <v>442791.7959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>61916.3198690909</v>
@@ -1235,16 +1343,22 @@
       <c r="E22">
         <v>2016</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>4473905.687</v>
+      </c>
+      <c r="G22">
+        <v>441870.6698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>65003.18732838254</v>
@@ -1252,30 +1366,36 @@
       <c r="E23">
         <v>2016</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>4473660.907</v>
+      </c>
+      <c r="G23">
+        <v>442862.905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>2016</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>78534.93702418842</v>
@@ -1283,16 +1403,22 @@
       <c r="E25">
         <v>2016</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>4475110.43</v>
+      </c>
+      <c r="G25">
+        <v>441820.8979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>46913.75530917183</v>
@@ -1300,16 +1426,22 @@
       <c r="E26">
         <v>2016</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>4475153.753</v>
+      </c>
+      <c r="G26">
+        <v>442789.9119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>38598.71528862196</v>
@@ -1317,16 +1449,22 @@
       <c r="E27">
         <v>2016</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>4475116.489</v>
+      </c>
+      <c r="G27">
+        <v>443691.2602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>44361.02499733586</v>
@@ -1334,16 +1472,22 @@
       <c r="E28">
         <v>2016</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>4476402.061</v>
+      </c>
+      <c r="G28">
+        <v>443463.5845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>45891.15505692927</v>
@@ -1351,16 +1495,22 @@
       <c r="E29">
         <v>2016</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>4475927.641</v>
+      </c>
+      <c r="G29">
+        <v>442676.6687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>75552.70270607954</v>
@@ -1368,30 +1518,36 @@
       <c r="E30">
         <v>2016</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>4476104.298</v>
+      </c>
+      <c r="G30">
+        <v>441959.5528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>2016</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D32">
         <v>113836.8279254318</v>
@@ -1399,16 +1555,22 @@
       <c r="E32">
         <v>2016</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>4477360.964</v>
+      </c>
+      <c r="G32">
+        <v>441927.2958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>41623.78892875783</v>
@@ -1416,16 +1578,22 @@
       <c r="E33">
         <v>2016</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>4477279.652</v>
+      </c>
+      <c r="G33">
+        <v>443241.5164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>41162.34508618403</v>
@@ -1433,16 +1601,22 @@
       <c r="E34">
         <v>2016</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>4477733.182</v>
+      </c>
+      <c r="G34">
+        <v>442929.7851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>58862.05765583333</v>
@@ -1450,16 +1624,22 @@
       <c r="E35">
         <v>2016</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>4478520.651</v>
+      </c>
+      <c r="G35">
+        <v>442584.7337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <v>73269.87729479362</v>
@@ -1467,16 +1647,22 @@
       <c r="E36">
         <v>2016</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>4479342.236</v>
+      </c>
+      <c r="G36">
+        <v>442506.6745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>53214.44070890136</v>
@@ -1484,30 +1670,36 @@
       <c r="E37">
         <v>2016</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>4480625.699</v>
+      </c>
+      <c r="G37">
+        <v>442382.2751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <v>29258.00872615985</v>
@@ -1515,16 +1707,22 @@
       <c r="E39">
         <v>2016</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>4478217.699</v>
+      </c>
+      <c r="G39">
+        <v>439996.5425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D40">
         <v>40466.59768550129</v>
@@ -1532,16 +1730,22 @@
       <c r="E40">
         <v>2016</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>4478108.124</v>
+      </c>
+      <c r="G40">
+        <v>440893.969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41">
         <v>43088.12522446175</v>
@@ -1549,16 +1753,22 @@
       <c r="E41">
         <v>2016</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>4479092.74</v>
+      </c>
+      <c r="G41">
+        <v>441146.7116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>27278.70618247434</v>
@@ -1566,16 +1776,22 @@
       <c r="E42">
         <v>2016</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>4480229.372</v>
+      </c>
+      <c r="G42">
+        <v>441142.6001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D43">
         <v>26847.50474288567</v>
@@ -1583,16 +1799,22 @@
       <c r="E43">
         <v>2016</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>4479832.029</v>
+      </c>
+      <c r="G43">
+        <v>440304.6074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D44">
         <v>27221.07083212885</v>
@@ -1600,30 +1822,36 @@
       <c r="E44">
         <v>2016</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>4479011.421</v>
+      </c>
+      <c r="G44">
+        <v>440230.3974</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E45">
         <v>2016</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>41122.2622573944</v>
@@ -1631,16 +1859,22 @@
       <c r="E46">
         <v>2016</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>4476283.322</v>
+      </c>
+      <c r="G46">
+        <v>439389.8945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <v>41590.12294301183</v>
@@ -1648,16 +1882,22 @@
       <c r="E47">
         <v>2016</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>4476214.595</v>
+      </c>
+      <c r="G47">
+        <v>439947.5584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>38017.91772528356</v>
@@ -1665,16 +1905,22 @@
       <c r="E48">
         <v>2016</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>4476037.29</v>
+      </c>
+      <c r="G48">
+        <v>440530.8517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>65706.48222628214</v>
@@ -1682,16 +1928,22 @@
       <c r="E49">
         <v>2016</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>4476032.059</v>
+      </c>
+      <c r="G49">
+        <v>441174.9953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D50">
         <v>45063.93354316391</v>
@@ -1699,16 +1951,22 @@
       <c r="E50">
         <v>2016</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>4477096.745</v>
+      </c>
+      <c r="G50">
+        <v>440826.6665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>56802.0873146541</v>
@@ -1716,30 +1974,36 @@
       <c r="E51">
         <v>2016</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>4477158.887</v>
+      </c>
+      <c r="G51">
+        <v>439682.3814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>2016</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D53">
         <v>35555.12931732934</v>
@@ -1747,16 +2011,22 @@
       <c r="E53">
         <v>2016</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>4489409.578</v>
+      </c>
+      <c r="G53">
+        <v>435018.7103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>83047.41521246458</v>
@@ -1764,16 +2034,22 @@
       <c r="E54">
         <v>2016</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>4481421.762</v>
+      </c>
+      <c r="G54">
+        <v>437127.6497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D55">
         <v>39527.23537933548</v>
@@ -1781,16 +2057,22 @@
       <c r="E55">
         <v>2016</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>4481152.656</v>
+      </c>
+      <c r="G55">
+        <v>438480.3153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <v>32912.29363809021</v>
@@ -1798,16 +2080,22 @@
       <c r="E56">
         <v>2016</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>4480959.021</v>
+      </c>
+      <c r="G56">
+        <v>439853.0231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D57">
         <v>56953.09853933495</v>
@@ -1815,16 +2103,22 @@
       <c r="E57">
         <v>2016</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>4481394.724</v>
+      </c>
+      <c r="G57">
+        <v>440957.8603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D58">
         <v>39314.86357679606</v>
@@ -1832,16 +2126,22 @@
       <c r="E58">
         <v>2016</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>4483501.173</v>
+      </c>
+      <c r="G58">
+        <v>442483.6118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D59">
         <v>73487.09277973957</v>
@@ -1849,16 +2149,22 @@
       <c r="E59">
         <v>2016</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>4483094.181</v>
+      </c>
+      <c r="G59">
+        <v>439024.2924</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D60">
         <v>51444.66460658083</v>
@@ -1866,30 +2172,36 @@
       <c r="E60">
         <v>2016</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>4487307.227</v>
+      </c>
+      <c r="G60">
+        <v>440716.0024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E61">
         <v>2016</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D62">
         <v>39510.59276896285</v>
@@ -1897,16 +2209,22 @@
       <c r="E62">
         <v>2016</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>4475050.323</v>
+      </c>
+      <c r="G62">
+        <v>436118.4975</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D63">
         <v>49355.1255906607</v>
@@ -1914,16 +2232,22 @@
       <c r="E63">
         <v>2016</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>4475533.294</v>
+      </c>
+      <c r="G63">
+        <v>439109.0847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D64">
         <v>62275.79002621461</v>
@@ -1931,16 +2255,22 @@
       <c r="E64">
         <v>2016</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>4478627.02</v>
+      </c>
+      <c r="G64">
+        <v>437391.5065</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D65">
         <v>34027.55873459396</v>
@@ -1948,16 +2278,22 @@
       <c r="E65">
         <v>2016</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>4479644.899</v>
+      </c>
+      <c r="G65">
+        <v>439188.6628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D66">
         <v>106640.8465008676</v>
@@ -1965,16 +2301,22 @@
       <c r="E66">
         <v>2016</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>4480009.063</v>
+      </c>
+      <c r="G66">
+        <v>433968.0416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D67">
         <v>93597.30476190477</v>
@@ -1982,16 +2324,22 @@
       <c r="E67">
         <v>2016</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>4480219.592</v>
+      </c>
+      <c r="G67">
+        <v>430409.7127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D68">
         <v>67162.50093347496</v>
@@ -1999,30 +2347,36 @@
       <c r="E68">
         <v>2016</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>4478516.428</v>
+      </c>
+      <c r="G68">
+        <v>433939.3352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E69">
         <v>2016</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D70">
         <v>27624.35615445233</v>
@@ -2030,16 +2384,22 @@
       <c r="E70">
         <v>2016</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>4472579.69</v>
+      </c>
+      <c r="G70">
+        <v>437550.3787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D71">
         <v>26531.91978125733</v>
@@ -2047,16 +2407,22 @@
       <c r="E71">
         <v>2016</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>4473487.258</v>
+      </c>
+      <c r="G71">
+        <v>437907.9825</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D72">
         <v>29069.14186029678</v>
@@ -2064,16 +2430,22 @@
       <c r="E72">
         <v>2016</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>4472679.645</v>
+      </c>
+      <c r="G72">
+        <v>436327.8871</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D73">
         <v>30431.0956849079</v>
@@ -2081,16 +2453,22 @@
       <c r="E73">
         <v>2016</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>4471531.816</v>
+      </c>
+      <c r="G73">
+        <v>435779.5365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D74">
         <v>30794.57532714167</v>
@@ -2098,16 +2476,22 @@
       <c r="E74">
         <v>2016</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>4470817.836</v>
+      </c>
+      <c r="G74">
+        <v>431786.0869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D75">
         <v>35053.30567016317</v>
@@ -2115,16 +2499,22 @@
       <c r="E75">
         <v>2016</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>4468973.502</v>
+      </c>
+      <c r="G75">
+        <v>433434.5775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D76">
         <v>28990.15678783744</v>
@@ -2132,30 +2522,36 @@
       <c r="E76">
         <v>2016</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>4470420.122</v>
+      </c>
+      <c r="G76">
+        <v>434547.9376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E77">
         <v>2016</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D78">
         <v>26321.3272806828</v>
@@ -2163,16 +2559,22 @@
       <c r="E78">
         <v>2016</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>4471676.723</v>
+      </c>
+      <c r="G78">
+        <v>439576.9792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D79">
         <v>27099.88404404724</v>
@@ -2180,16 +2582,22 @@
       <c r="E79">
         <v>2016</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>4471320.131</v>
+      </c>
+      <c r="G79">
+        <v>438741.1131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D80">
         <v>25021.23900821355</v>
@@ -2197,16 +2605,22 @@
       <c r="E80">
         <v>2016</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>4472031.606</v>
+      </c>
+      <c r="G80">
+        <v>438190.5428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D81">
         <v>26875.75573311859</v>
@@ -2214,16 +2628,22 @@
       <c r="E81">
         <v>2016</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>4470681.208</v>
+      </c>
+      <c r="G81">
+        <v>436700.7182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D82">
         <v>24636.68145550088</v>
@@ -2231,16 +2651,22 @@
       <c r="E82">
         <v>2016</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>4470159.472</v>
+      </c>
+      <c r="G82">
+        <v>437262.2706</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D83">
         <v>29610.67004985977</v>
@@ -2248,16 +2674,22 @@
       <c r="E83">
         <v>2016</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>4468769.588</v>
+      </c>
+      <c r="G83">
+        <v>436656.9012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D84">
         <v>27438.80619678602</v>
@@ -2265,30 +2697,36 @@
       <c r="E84">
         <v>2016</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>4470074.329</v>
+      </c>
+      <c r="G84">
+        <v>438358.4198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E85">
         <v>2016</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D86">
         <v>25968.56797837838</v>
@@ -2296,16 +2734,22 @@
       <c r="E86">
         <v>2016</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>4468916.31</v>
+      </c>
+      <c r="G86">
+        <v>439516.2653</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D87">
         <v>23197.55687211094</v>
@@ -2313,16 +2757,22 @@
       <c r="E87">
         <v>2016</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>4469305.319</v>
+      </c>
+      <c r="G87">
+        <v>440733.1193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D88">
         <v>24201.50631166203</v>
@@ -2330,16 +2780,22 @@
       <c r="E88">
         <v>2016</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>4469120.886</v>
+      </c>
+      <c r="G88">
+        <v>441499.985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D89">
         <v>24290.83961028306</v>
@@ -2347,16 +2803,22 @@
       <c r="E89">
         <v>2016</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>4470576.407</v>
+      </c>
+      <c r="G89">
+        <v>440645.9665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D90">
         <v>25745.47391276731</v>
@@ -2364,16 +2826,22 @@
       <c r="E90">
         <v>2016</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>4471173.407</v>
+      </c>
+      <c r="G90">
+        <v>440009.8419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D91">
         <v>24556.0532805995</v>
@@ -2381,16 +2849,22 @@
       <c r="E91">
         <v>2016</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>4470110.376</v>
+      </c>
+      <c r="G91">
+        <v>439279.8576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D92">
         <v>21814.31793819832</v>
@@ -2398,30 +2872,36 @@
       <c r="E92">
         <v>2016</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>4469968.652</v>
+      </c>
+      <c r="G92">
+        <v>439974.4688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D94">
         <v>21038.58028815196</v>
@@ -2429,16 +2909,22 @@
       <c r="E94">
         <v>2016</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>4469574.278</v>
+      </c>
+      <c r="G94">
+        <v>442858.5724</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D95">
         <v>20108.01298204318</v>
@@ -2446,16 +2932,22 @@
       <c r="E95">
         <v>2016</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>4471262.193</v>
+      </c>
+      <c r="G95">
+        <v>443316.4678</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D96">
         <v>27649.77946092198</v>
@@ -2463,16 +2955,22 @@
       <c r="E96">
         <v>2016</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>4470671.33</v>
+      </c>
+      <c r="G96">
+        <v>444074.8694</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D97">
         <v>25372.478739345</v>
@@ -2480,16 +2978,22 @@
       <c r="E97">
         <v>2016</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>4470708.716</v>
+      </c>
+      <c r="G97">
+        <v>445907.486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D98">
         <v>22832.91712578857</v>
@@ -2497,16 +3001,22 @@
       <c r="E98">
         <v>2016</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>4471314.521</v>
+      </c>
+      <c r="G98">
+        <v>444982.7317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D99">
         <v>23773.91043923949</v>
@@ -2514,30 +3024,36 @@
       <c r="E99">
         <v>2016</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>4472306.995</v>
+      </c>
+      <c r="G99">
+        <v>444116.7652</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E100">
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D101">
         <v>33133.69630495791</v>
@@ -2545,16 +3061,22 @@
       <c r="E101">
         <v>2016</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>4472183.36</v>
+      </c>
+      <c r="G101">
+        <v>446353.3523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D102">
         <v>41912.71535597953</v>
@@ -2562,16 +3084,22 @@
       <c r="E102">
         <v>2016</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>4473295.298</v>
+      </c>
+      <c r="G102">
+        <v>446804.3855</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D103">
         <v>39432.62479985105</v>
@@ -2579,16 +3107,22 @@
       <c r="E103">
         <v>2016</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>4473543.376</v>
+      </c>
+      <c r="G103">
+        <v>445646.4672</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D104">
         <v>34725.93569598874</v>
@@ -2596,16 +3130,22 @@
       <c r="E104">
         <v>2016</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>4473682.217</v>
+      </c>
+      <c r="G104">
+        <v>444272.189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D105">
         <v>27396.66223121047</v>
@@ -2613,16 +3153,22 @@
       <c r="E105">
         <v>2016</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>4472512.703</v>
+      </c>
+      <c r="G105">
+        <v>445115.9638</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D106">
         <v>28551.2156833934</v>
@@ -2630,30 +3176,36 @@
       <c r="E106">
         <v>2016</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>4472936.191</v>
+      </c>
+      <c r="G106">
+        <v>445482.8128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107">
         <v>2016</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D108">
         <v>27598.89514785634</v>
@@ -2661,16 +3213,22 @@
       <c r="E108">
         <v>2016</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>4474850.803</v>
+      </c>
+      <c r="G108">
+        <v>445079.4926</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D109">
         <v>29101.19192967336</v>
@@ -2678,16 +3236,22 @@
       <c r="E109">
         <v>2016</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>4475266.901</v>
+      </c>
+      <c r="G109">
+        <v>446095.6831</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D110">
         <v>29520.05134458789</v>
@@ -2695,16 +3259,22 @@
       <c r="E110">
         <v>2016</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>4476462.964</v>
+      </c>
+      <c r="G110">
+        <v>445289.7605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D111">
         <v>33489.01157409515</v>
@@ -2712,16 +3282,22 @@
       <c r="E111">
         <v>2016</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>4476721.345</v>
+      </c>
+      <c r="G111">
+        <v>444934.1577</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D112">
         <v>41145.23893471729</v>
@@ -2729,16 +3305,22 @@
       <c r="E112">
         <v>2016</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>4477117.637</v>
+      </c>
+      <c r="G112">
+        <v>444582.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D113">
         <v>53815.49966609589</v>
@@ -2746,16 +3328,22 @@
       <c r="E113">
         <v>2016</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>4477988.461</v>
+      </c>
+      <c r="G113">
+        <v>444343.151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D114">
         <v>50733.59091060291</v>
@@ -2763,16 +3351,22 @@
       <c r="E114">
         <v>2016</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>4478807.34</v>
+      </c>
+      <c r="G114">
+        <v>444014.4325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D115">
         <v>64437.93746402877</v>
@@ -2780,16 +3374,22 @@
       <c r="E115">
         <v>2016</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>4479501.192</v>
+      </c>
+      <c r="G115">
+        <v>443626.7881</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D116">
         <v>61976.63614365502</v>
@@ -2797,30 +3397,36 @@
       <c r="E116">
         <v>2016</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>4480877.84</v>
+      </c>
+      <c r="G116">
+        <v>443334.1197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E117">
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D118">
         <v>75672.58545712933</v>
@@ -2828,16 +3434,22 @@
       <c r="E118">
         <v>2016</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>4478175.942</v>
+      </c>
+      <c r="G118">
+        <v>447754.9382</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D119">
         <v>100792.4686637168</v>
@@ -2845,16 +3457,22 @@
       <c r="E119">
         <v>2016</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>4478532.529</v>
+      </c>
+      <c r="G119">
+        <v>446151.4886</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D120">
         <v>38763.18112522338</v>
@@ -2862,16 +3480,22 @@
       <c r="E120">
         <v>2016</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>4479433.42</v>
+      </c>
+      <c r="G120">
+        <v>445426.2189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D121">
         <v>32811.44967181744</v>
@@ -2879,16 +3503,22 @@
       <c r="E121">
         <v>2016</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>4480401.898</v>
+      </c>
+      <c r="G121">
+        <v>445152.0269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D122">
         <v>35135.79784852196</v>
@@ -2896,16 +3526,22 @@
       <c r="E122">
         <v>2016</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>4480844.351</v>
+      </c>
+      <c r="G122">
+        <v>444105.2521</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D123">
         <v>52532.1401325811</v>
@@ -2913,30 +3549,36 @@
       <c r="E123">
         <v>2016</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>4482753.289</v>
+      </c>
+      <c r="G123">
+        <v>446176.0779</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E124">
         <v>2016</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D125">
         <v>23657.75781362468</v>
@@ -2945,15 +3587,15 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D126">
         <v>18121.61232704403</v>
@@ -2961,16 +3603,22 @@
       <c r="E126">
         <v>2016</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>4465820.907</v>
+      </c>
+      <c r="G126">
+        <v>441533.8022</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D127">
         <v>27423.20473497537</v>
@@ -2978,16 +3626,22 @@
       <c r="E127">
         <v>2016</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>4465394.096</v>
+      </c>
+      <c r="G127">
+        <v>442559.7779</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D128">
         <v>27157.83102467685</v>
@@ -2995,16 +3649,22 @@
       <c r="E128">
         <v>2016</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>4467464.76</v>
+      </c>
+      <c r="G128">
+        <v>441536.5956</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D129">
         <v>27544.19522579541</v>
@@ -3012,58 +3672,64 @@
       <c r="E129">
         <v>2016</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>4467482.211</v>
+      </c>
+      <c r="G129">
+        <v>440632.5318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E130">
         <v>2016</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E131">
         <v>2016</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E132">
         <v>2016</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D133">
         <v>26874.22896868594</v>
@@ -3071,16 +3737,22 @@
       <c r="E133">
         <v>2016</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>4466332.267</v>
+      </c>
+      <c r="G133">
+        <v>447496.1334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D134">
         <v>35152.01730866178</v>
@@ -3088,100 +3760,106 @@
       <c r="E134">
         <v>2016</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>4470494.392</v>
+      </c>
+      <c r="G134">
+        <v>448110.1432</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E135">
         <v>2016</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E136">
         <v>2016</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E137">
         <v>2016</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138">
         <v>2016</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E139">
         <v>2016</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E140">
         <v>2016</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D141">
         <v>32908.90185442145</v>
@@ -3189,16 +3867,22 @@
       <c r="E141">
         <v>2016</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>4471000.988</v>
+      </c>
+      <c r="G141">
+        <v>450789.392</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D142">
         <v>23001.35138671875</v>
@@ -3207,99 +3891,99 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E143">
         <v>2016</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E144">
         <v>2016</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E145">
         <v>2016</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E146">
         <v>2016</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E147">
         <v>2016</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
+        <v>149</v>
+      </c>
+      <c r="E148">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="E148">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="1">
-        <v>1</v>
-      </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D149">
         <v>29510.1733002143</v>
@@ -3307,16 +3991,22 @@
       <c r="E149">
         <v>2016</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>4476263.737</v>
+      </c>
+      <c r="G149">
+        <v>446981.6721</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D150">
         <v>22647.07046321526</v>
@@ -3324,16 +4014,22 @@
       <c r="E150">
         <v>2016</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>4475772.544</v>
+      </c>
+      <c r="G150">
+        <v>447680.4837</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D151">
         <v>21317.2334949371</v>
@@ -3341,16 +4037,22 @@
       <c r="E151">
         <v>2016</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>4475241.334</v>
+      </c>
+      <c r="G151">
+        <v>447234.3454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D152">
         <v>26632.98615349212</v>
@@ -3358,16 +4060,22 @@
       <c r="E152">
         <v>2016</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>4474693.643</v>
+      </c>
+      <c r="G152">
+        <v>447607.4973</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D153">
         <v>41383.49048161526</v>
@@ -3375,16 +4083,22 @@
       <c r="E153">
         <v>2016</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>4475395.532</v>
+      </c>
+      <c r="G153">
+        <v>449590.4285</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D154">
         <v>36235.79746718277</v>
@@ -3392,16 +4106,22 @@
       <c r="E154">
         <v>2016</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>4477317.169</v>
+      </c>
+      <c r="G154">
+        <v>451648.3991</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D155">
         <v>30527.11548620236</v>
@@ -3409,16 +4129,22 @@
       <c r="E155">
         <v>2016</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>4477135.693</v>
+      </c>
+      <c r="G155">
+        <v>448224.083</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D156">
         <v>50342.18916804148</v>
@@ -3426,30 +4152,36 @@
       <c r="E156">
         <v>2016</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>4477373.192</v>
+      </c>
+      <c r="G156">
+        <v>446491.5939</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
+        <v>158</v>
+      </c>
+      <c r="E157">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="E157">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="1">
-        <v>1</v>
-      </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D158">
         <v>52018.80196609203</v>
@@ -3457,16 +4189,22 @@
       <c r="E158">
         <v>2016</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>4478581.448</v>
+      </c>
+      <c r="G158">
+        <v>449818.2184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D159">
         <v>22620.30919354839</v>
@@ -3474,16 +4212,22 @@
       <c r="E159">
         <v>2016</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>4481029.075</v>
+      </c>
+      <c r="G159">
+        <v>452237.8537</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D160">
         <v>33312.14001017294</v>
@@ -3491,16 +4235,22 @@
       <c r="E160">
         <v>2016</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>4480530.185</v>
+      </c>
+      <c r="G160">
+        <v>450931.3676</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D161">
         <v>38646.91298671941</v>
@@ -3508,22 +4258,34 @@
       <c r="E161">
         <v>2016</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>4480810.557</v>
+      </c>
+      <c r="G161">
+        <v>448842.3002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D162">
         <v>68664.54566429743</v>
       </c>
       <c r="E162">
         <v>2016</v>
+      </c>
+      <c r="F162">
+        <v>4479457.295</v>
+      </c>
+      <c r="G162">
+        <v>448527.2781</v>
       </c>
     </row>
   </sheetData>
